--- a/data/income_statement/3digits/total/255_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/255_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>255-Forging, pressing, stamping and roll-forming of metal; powder metallurgy</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>255-Forging, pressing, stamping and roll-forming of metal; powder metallurgy</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>2130949.13533</v>
@@ -965,28 +871,33 @@
         <v>4647261.23955</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5635931.588490001</v>
+        <v>5635931.58849</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5396733.42334</v>
+        <v>6391833.79819</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>7082406.064</v>
+        <v>7230883.97709</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>9792340.9604</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>14767092.91358</v>
+        <v>14776713.74482</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>16841008.40647</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>16856795.95777</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>18757585.381</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1723857.2201</v>
@@ -1004,28 +915,33 @@
         <v>3794034.28565</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4400118.476810001</v>
+        <v>4400118.47681</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4490517.090729999</v>
+        <v>5259068.69729</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5904091.40971</v>
+        <v>6016496.03026</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>8102290.216860001</v>
+        <v>8102290.21686</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>11416561.61626</v>
+        <v>11426182.4475</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>12682633.17779</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12697625.84117</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>14264718.578</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>386514.87918</v>
@@ -1034,10 +950,10 @@
         <v>489197.71074</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>667230.8593799999</v>
+        <v>667230.85938</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>692975.1478</v>
+        <v>692975.1477999999</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>813810.81116</v>
@@ -1046,10 +962,10 @@
         <v>1171559.77935</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>843962.8579000001</v>
+        <v>1068204.18951</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1102004.65064</v>
+        <v>1137672.86065</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1577403.52631</v>
@@ -1058,13 +974,18 @@
         <v>3156433.97842</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3978567.98319</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3979291.46253</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>4173549.74</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>20577.03605</v>
@@ -1085,10 +1006,10 @@
         <v>64253.33233</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>62253.47470999999</v>
+        <v>64560.91139</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>76310.00365</v>
+        <v>76715.08618000001</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>112647.21723</v>
@@ -1097,16 +1018,21 @@
         <v>194097.3189</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>179807.24549</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>179878.65407</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>319317.063</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>60190.33518000001</v>
+        <v>60190.33518</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>62719.40852</v>
@@ -1124,25 +1050,30 @@
         <v>155878.91907</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>176311.83602</v>
+        <v>189869.9266</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>201465.30171</v>
+        <v>201624.93153</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>430692.99219</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>836752.67275</v>
+        <v>836753.09935</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1176383.55902</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1176711.37957</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1158077.682</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>33177.72991</v>
@@ -1151,7 +1082,7 @@
         <v>28293.24387</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>37913.87401000001</v>
+        <v>37913.87401</v>
       </c>
       <c r="F10" s="48" t="n">
         <v>46535.41028</v>
@@ -1163,25 +1094,30 @@
         <v>48745.96145</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>56588.28908</v>
+        <v>60543.52078</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>72997.85695999999</v>
+        <v>73085.07154999999</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>104565.05192</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>125062.22649</v>
+        <v>125062.65309</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>113905.21787</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>114217.57223</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>119881.794</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>21225.05197</v>
@@ -1199,28 +1135,33 @@
         <v>58884.99273</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>89634.495</v>
+        <v>89634.49500000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>105930.01557</v>
+        <v>108286.10448</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>113444.68766</v>
+        <v>113503.93349</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>303663.13481</v>
+        <v>303663.1348100001</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>657851.1544000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>998484.44146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>998486.2366000001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1001675.956</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>5787.5533</v>
@@ -1241,10 +1182,10 @@
         <v>17498.46262</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>13793.53137</v>
+        <v>21040.30134</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>15022.75709</v>
+        <v>15035.92649</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>22464.80546</v>
@@ -1253,13 +1194,18 @@
         <v>53839.29186</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>63993.89969</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>64007.57074</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>36519.932</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>2070758.80015</v>
@@ -1271,7 +1217,7 @@
         <v>3857165.40703</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4127736.120099999</v>
+        <v>4127736.1201</v>
       </c>
       <c r="G13" s="47" t="n">
         <v>4546392.368989999</v>
@@ -1280,25 +1226,30 @@
         <v>5480052.66942</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5220421.58732</v>
+        <v>6201963.871590001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>6880940.76229</v>
+        <v>7029259.04556</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>9361647.968209999</v>
+        <v>9361647.968210001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>13930340.24083</v>
+        <v>13939960.64547</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>15664624.84745</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15680084.5782</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>17599507.699</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1752362.96864</v>
@@ -1310,7 +1261,7 @@
         <v>3256718.0551</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3565956.55231</v>
+        <v>3565956.552310001</v>
       </c>
       <c r="G14" s="47" t="n">
         <v>3919815.93235</v>
@@ -1319,25 +1270,30 @@
         <v>4642782.399440001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4380010.46127</v>
+        <v>5239138.02095</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5806263.130480001</v>
+        <v>5921475.66508</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>7731130.9782</v>
+        <v>7731130.978199999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>11372745.39575</v>
+        <v>11382205.34815</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>12953465.88304</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>12966449.94362</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>14288046.185</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1592509.8309</v>
@@ -1358,25 +1314,30 @@
         <v>3972357.29747</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3676614.09435</v>
+        <v>4492979.27816</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>4869426.52036</v>
+        <v>4935880.074800001</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>6372092.400020001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>9509492.567650001</v>
+        <v>9509680.44857</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>10751076.89529</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>10752725.56108</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>11799921.655</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>134328.02336</v>
@@ -1397,25 +1358,30 @@
         <v>457235.45524</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>473201.20198</v>
+        <v>478362.6968800001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>613859.6066300001</v>
+        <v>661065.3213899999</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1004078.6066</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1318097.54567</v>
+        <v>1327352.14567</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1523954.45076</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1535202.85503</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1758124.951</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>14676.62784</v>
@@ -1436,25 +1402,30 @@
         <v>169700.34573</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>211889.8074</v>
+        <v>212220.97311</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>231753.03213</v>
+        <v>232728.92192</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>269271.67649</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>424680.58206</v>
+        <v>424698.0535399999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>462946.86615</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>463005.4089</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>557423.174</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>10848.48654</v>
@@ -1475,25 +1446,30 @@
         <v>43489.301</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>18305.35754</v>
+        <v>55575.07279999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>91223.97136000001</v>
+        <v>91801.34697</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>85688.29509</v>
+        <v>85688.29508999999</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>120474.70037</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>215487.67084</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>215516.11861</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>172576.405</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>318395.83151</v>
@@ -1502,10 +1478,10 @@
         <v>373167.57199</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>600447.3519300001</v>
+        <v>600447.35193</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>561779.5677900001</v>
+        <v>561779.56779</v>
       </c>
       <c r="G19" s="47" t="n">
         <v>626576.43664</v>
@@ -1514,25 +1490,30 @@
         <v>837270.26998</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>840411.12605</v>
+        <v>962825.85064</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1074677.63181</v>
+        <v>1107783.38048</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1630516.99001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2557594.84508</v>
+        <v>2557755.29732</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2711158.96441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2713634.63458</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3311461.514</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>193528.43045</v>
@@ -1550,34 +1531,39 @@
         <v>402864.29449</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>464513.17429</v>
+        <v>464513.1742899999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>452382.62372</v>
+        <v>507522.64534</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>561369.3062100001</v>
+        <v>574069.9853800001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>707218.09639</v>
+        <v>707218.0963899998</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1037625.48278</v>
+        <v>1037958.82412</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1245086.61633</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1249353.58602</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1273237.755</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>12956.44214</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>9778.539210000001</v>
+        <v>9778.539209999999</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>14612.66454</v>
@@ -1592,7 +1578,7 @@
         <v>29951.26306</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>17965.15523</v>
+        <v>20441.1275</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>27949.88251</v>
@@ -1604,13 +1590,18 @@
         <v>38158.60019</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>41430.93846</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>41620.81464</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>43995.37</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>45959.32192</v>
@@ -1631,25 +1622,30 @@
         <v>127287.25981</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>136388.82003</v>
+        <v>147473.72248</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>157104.32831</v>
+        <v>160723.51141</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>221267.1092</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>391682.81609</v>
+        <v>391687.63105</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>495516.13876</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>496867.27463</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>489942.752</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>134612.66639</v>
@@ -1670,25 +1666,30 @@
         <v>307274.65142</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>298028.64846</v>
+        <v>339607.79536</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>376315.09539</v>
+        <v>385396.59146</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>455937.51491</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>607784.0665</v>
+        <v>608112.59288</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>708139.53911</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>710865.49675</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>739299.633</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>124867.40106</v>
@@ -1697,7 +1698,7 @@
         <v>149493.78455</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>313766.99886</v>
+        <v>313766.9988599999</v>
       </c>
       <c r="F24" s="47" t="n">
         <v>227934.71792</v>
@@ -1709,25 +1710,30 @@
         <v>372757.09569</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>388028.50233</v>
+        <v>455303.2053</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>513308.3256</v>
+        <v>533713.3951000001</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>923298.89362</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1519969.3623</v>
+        <v>1519796.4732</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1466072.34808</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1464281.04856</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2038223.759</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>107411.43198</v>
@@ -1748,25 +1754,30 @@
         <v>199557.42505</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>235807.89432</v>
+        <v>276507.23403</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>244164.39762</v>
+        <v>250983.72825</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>419014.05744</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1446722.89355</v>
+        <v>1446861.00346</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>790038.46481</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>790211.33753</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1497549.031</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1414.441</v>
@@ -1787,7 +1798,7 @@
         <v>1674.09555</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2039.63613</v>
+        <v>2757.535820000001</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>3076.92346</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>4898.13222</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>1612.088</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,17 +1856,22 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>7026.676280000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>5377.756310000001</v>
+        <v>5377.75631</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>7678.553599999999</v>
@@ -1865,10 +1886,10 @@
         <v>12742.65949</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>7747.64413</v>
+        <v>10432.06699</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>12429.52273</v>
+        <v>12606.98848</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>23393.9569</v>
@@ -1877,13 +1898,18 @@
         <v>52556.20326</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>69081.25069</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>69081.34122</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>73036.569</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>6.36256</v>
@@ -1916,13 +1942,18 @@
         <v>0.07915999999999999</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>2555.2788</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>308.0547</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>79.67</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1965.86685</v>
@@ -1946,22 +1977,27 @@
         <v>1790.65591</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1816.20055</v>
+        <v>3213.23162</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>1957.34544</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>4569.616840000001</v>
+        <v>4569.61684</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>5742.37391</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>2101.171</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>288.49913</v>
@@ -1970,7 +2006,7 @@
         <v>297.57852</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>617.39029</v>
+        <v>617.3902899999999</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>245.54812</v>
@@ -1994,13 +2030,18 @@
         <v>39842.38243</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>13254.15321</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>13317.65321</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>23026.739</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>83537.50399000001</v>
@@ -2021,25 +2062,30 @@
         <v>154756.00966</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>196669.44183</v>
+        <v>233430.2686</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>191479.4444799999</v>
+        <v>196309.22595</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>349331.41287</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1271548.36482</v>
+        <v>1271557.01928</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>642584.9728299999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>644842.2827099999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1276965.46</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1257.97631</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1054.25915</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>940.206</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>11914.10586</v>
@@ -2135,34 +2191,39 @@
         <v>21090.95188</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>28059.16755999999</v>
+        <v>28059.16756</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>25107.49861</v>
+        <v>25643.689</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>31758.19096</v>
+        <v>32173.2433</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>34270.77934</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>70484.36704</v>
+        <v>70613.82248999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>50868.044</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>50967.24041</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>119787.128</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>70609.40991</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>72898.34885000001</v>
+        <v>72898.34884999999</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>160703.39566</v>
@@ -2177,25 +2238,30 @@
         <v>176419.87381</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>301998.44838</v>
+        <v>334383.13073</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>377713.3609</v>
+        <v>382409.85734</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>457897.92002</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1585442.19879</v>
+        <v>1585446.30326</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>760405.6081799999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>760397.14244</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1371385.189</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1514.07099</v>
@@ -2216,10 +2282,10 @@
         <v>734.6508100000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1643.83283</v>
+        <v>1718.68489</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1581.27606</v>
+        <v>2018.37606</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>1846.03964</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>2234.58088</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>2235.046</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>3973.62028</v>
@@ -2246,7 +2317,7 @@
         <v>3429.30963</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>4286.288209999999</v>
+        <v>4286.28821</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>4351.495519999999</v>
@@ -2258,7 +2329,7 @@
         <v>6631.3842</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>36671.72365</v>
+        <v>37974.90258</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>4596.9595</v>
@@ -2267,13 +2338,18 @@
         <v>16515.62231</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>4678.666990000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>4678.666990000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>19384.818</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>2.73213</v>
@@ -2308,14 +2384,19 @@
       <c r="M39" s="48" t="n">
         <v>2467.09753</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>11306.645</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>63279.80590000001</v>
+        <v>63279.8059</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>64539.61121</v>
@@ -2333,25 +2414,30 @@
         <v>162837.12897</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>288515.50652</v>
+        <v>320824.18103</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>323357.40279</v>
+        <v>326313.61377</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>440452.22896</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1533405.9462</v>
+        <v>1533410.05067</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>738567.76289</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>738586.6442000001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1317831.292</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>44.06862</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1029.10772</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1195.836</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2414,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0</v>
+        <v>0.00653</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>1795.11199</v>
@@ -2450,37 +2546,42 @@
         <v>8952.91732</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>4130.90653</v>
+        <v>4132.062309999999</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>13967.83655</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>8180.331340000001</v>
+        <v>8180.33134</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>10792.35677</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>11428.39217</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>11401.04512</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>19431.552</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>80401.20309000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>55359.46515</v>
+        <v>55359.46514999999</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>100710.72708</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>86964.53292</v>
+        <v>86964.53291999998</v>
       </c>
       <c r="G44" s="47" t="n">
         <v>132119.19183</v>
@@ -2489,31 +2590,36 @@
         <v>114550.05569</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>118320.94576</v>
+        <v>150757.12912</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>166746.32089</v>
+        <v>168472.96273</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>235492.59984</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>430827.72808</v>
+        <v>430827.73428</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>354113.44715</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>354180.44566</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>544179.806</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>65671.45534999999</v>
+        <v>65671.45535</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>43320.20979</v>
+        <v>43320.20979000001</v>
       </c>
       <c r="E45" s="48" t="n">
         <v>78931.01157999999</v>
@@ -2528,25 +2634,30 @@
         <v>98140.52553</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>100250.39412</v>
+        <v>121667.15175</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>143011.69092</v>
+        <v>144738.33276</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>198506.31011</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>365019.98842</v>
+        <v>365019.99462</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>302680.68975</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>302681.18425</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>459807.041</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>14729.74774</v>
@@ -2567,7 +2678,7 @@
         <v>16409.53016</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>18070.55164</v>
+        <v>29089.97737</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>23734.62997</v>
@@ -2579,13 +2690,18 @@
         <v>65807.73965999999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>51432.75740000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>51499.26141000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>84372.765</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>81268.22003999999</v>
@@ -2606,25 +2722,30 @@
         <v>281344.59124</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>203517.00251</v>
+        <v>246670.17948</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>213013.04143</v>
+        <v>233814.30328</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>648922.4312</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>950422.32898</v>
+        <v>950383.4391199999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1141591.75756</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1139914.79799</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1620207.795</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>16156.45033</v>
@@ -2645,25 +2766,30 @@
         <v>55034.19758</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>52794.52</v>
+        <v>59595.82843000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>60029.40480999999</v>
+        <v>68659.21677000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>87716.50042999997</v>
+        <v>87716.50043</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>49617.92693</v>
+        <v>49668.42198</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>146165.36094</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>146181.3278</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>115825.621</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>173.32614</v>
@@ -2684,7 +2810,7 @@
         <v>247.52247</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1007.65263</v>
+        <v>1015.06006</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>181.90483</v>
@@ -2696,13 +2822,18 @@
         <v>399.76162</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>406.08548</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>416.36805</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>9782.233</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>15983.12419</v>
@@ -2723,25 +2854,30 @@
         <v>54786.67511</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>51786.86737</v>
+        <v>58580.76837000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>59847.49997999999</v>
+        <v>68477.31194</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>87570.04500999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>49218.16531</v>
+        <v>49268.66036</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>145759.27546</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>145764.95975</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>106043.388</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>18109.81924</v>
@@ -2750,7 +2886,7 @@
         <v>18251.14907</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>77605.02235</v>
+        <v>77605.02235000001</v>
       </c>
       <c r="F51" s="47" t="n">
         <v>20231.32652</v>
@@ -2762,25 +2898,30 @@
         <v>90149.94041</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>23750.09224</v>
+        <v>32912.23122</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>116184.99376</v>
+        <v>116900.01304</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>55070.03606000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>98956.77198</v>
+        <v>99077.38256</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>74831.83815000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>76979.74288999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>149900.775</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>4156.73682</v>
@@ -2801,10 +2942,10 @@
         <v>4242.23938</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>437.6421</v>
+        <v>4790.35326</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>4701.86608</v>
+        <v>4701.866079999999</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>8883.26251</v>
@@ -2815,14 +2956,19 @@
       <c r="M52" s="48" t="n">
         <v>9400.799940000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>58519.523</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>601.78867</v>
+        <v>601.7886699999999</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>1704.89996</v>
@@ -2840,10 +2986,10 @@
         <v>14329.67722</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2049.46886</v>
+        <v>2067.00551</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2690.30174</v>
+        <v>2690.56606</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>5916.81328</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>16754.83138</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>34686.972</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>13351.29375</v>
@@ -2873,31 +3024,36 @@
         <v>11990.51966</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>28903.82054000001</v>
+        <v>28903.82054</v>
       </c>
       <c r="H54" s="48" t="n">
         <v>71578.02381</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>21262.98128</v>
+        <v>26054.87245</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>108792.82594</v>
+        <v>109507.5809</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>40269.96027</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>81299.31899</v>
+        <v>81419.92956999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>48676.20683</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>50824.11157</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>56694.28</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>79314.85113</v>
@@ -2912,31 +3068,36 @@
         <v>185598.23258</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>72467.91843000001</v>
+        <v>72467.91842999999</v>
       </c>
       <c r="H55" s="47" t="n">
         <v>246228.84841</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>232561.43027</v>
+        <v>273353.77669</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>156857.45248</v>
+        <v>185573.50701</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>681568.8955700001</v>
+        <v>681568.8955699999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>901083.4839300001</v>
+        <v>900974.47854</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1212925.28035</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1209116.3829</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1586132.641</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>15218.30091</v>
@@ -2957,10 +3118,10 @@
         <v>39630.67556</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>45779.87419</v>
+        <v>47599.32153</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>51787.07038</v>
+        <v>57393.11725999999</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>75334.73517999999</v>
@@ -2969,13 +3130,18 @@
         <v>133053.47333</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>160677.43404</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>160734.11884</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>233586.53</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>64096.55022</v>
@@ -2996,22 +3162,25 @@
         <v>206598.17285</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>186781.55608</v>
+        <v>225754.45516</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>105070.3821</v>
+        <v>128180.38975</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>606234.1603899999</v>
+        <v>606234.16039</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>768030.0105999999</v>
+        <v>767921.0052100001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1052247.84631</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1048382.26406</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1352546.111</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>281</v>
@@ -3050,22 +3222,25 @@
         <v>362</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>405</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>435</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>